--- a/Documents/Fun/93 Explorer Build Sheet.xlsx
+++ b/Documents/Fun/93 Explorer Build Sheet.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Documents\Fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D64B52-1D95-4DDA-96FD-13F4664E2A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F338962-55C9-4971-B0B8-C747011E952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4785" windowWidth="28800" windowHeight="15510" xr2:uid="{33AAFDFF-1324-40FB-85B4-16FC7E9ED1E0}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" xr2:uid="{33AAFDFF-1324-40FB-85B4-16FC7E9ED1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Price</t>
   </si>
@@ -196,16 +195,37 @@
     <t>Passenger Door Handle</t>
   </si>
   <si>
-    <t>~128000</t>
-  </si>
-  <si>
-    <t>~127700</t>
-  </si>
-  <si>
     <t>Brake Pads</t>
   </si>
   <si>
     <t>Outer Tie Rods</t>
+  </si>
+  <si>
+    <t>Left Tie Rod End</t>
+  </si>
+  <si>
+    <t>Right Tie Rod End</t>
+  </si>
+  <si>
+    <t>Spark Plugs</t>
+  </si>
+  <si>
+    <t>Spark Plug Wires</t>
+  </si>
+  <si>
+    <t>~126000</t>
+  </si>
+  <si>
+    <t>~126500</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>OTW</t>
+  </si>
+  <si>
+    <t>On The Way</t>
   </si>
 </sst>
 </file>
@@ -455,7 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,9 +492,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -495,8 +513,8 @@
     <xf numFmtId="3" fontId="1" fillId="11" borderId="0" xfId="12" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="12" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -514,7 +532,1016 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="2" tint="-9.8025452436902985E-2"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF0070C0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="9" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="3" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="2" tint="-9.8025452436902985E-2"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF0070C0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="9" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="3" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="2" tint="-9.8025452436902985E-2"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="315">
+          <stop position="0">
+            <color theme="4" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="9" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="315">
+          <stop position="0">
+            <color theme="4" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="9" tint="0.80001220740379042"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="-0.49803155613879818"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B050"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF00B0F0"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="315">
+          <stop position="0">
+            <color theme="4" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -567,6 +1594,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66CC"/>
+      <color rgb="FFFF6600"/>
       <color rgb="FF8D52AE"/>
       <color rgb="FF8A3CC4"/>
       <color rgb="FFFF5050"/>
@@ -883,7 +1912,7 @@
   <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="I11:J11"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,25 +2012,25 @@
       <c r="W1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="24">
+      <c r="AF1" s="22">
         <v>2300</v>
       </c>
     </row>
@@ -1009,11 +2038,11 @@
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="38">
         <v>18</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1026,47 +2055,47 @@
       <c r="I2" s="12">
         <v>2</v>
       </c>
-      <c r="J2" s="38"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" s="14">
-        <v>7</v>
+        <v>47.94</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20">
         <v>1</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="22" t="s">
+      <c r="V2" s="37">
+        <v>7.99</v>
+      </c>
+      <c r="W2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="35">
-        <v>45533</v>
-      </c>
-      <c r="AA2" s="36" t="s">
+      <c r="Y2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="34">
-        <v>564.91999999999996</v>
-      </c>
-      <c r="AC2" s="33" t="s">
+      <c r="Z2" s="33">
+        <v>45530</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1074,11 +2103,11 @@
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>62</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1091,45 +2120,49 @@
       <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="14">
-        <v>70</v>
+        <v>12.99</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22">
+      <c r="T3" s="20"/>
+      <c r="U3" s="20">
         <v>1</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="22" t="s">
+      <c r="V3" s="37">
+        <v>7.99</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="35">
-        <v>45530</v>
-      </c>
-      <c r="AA3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="33" t="s">
+      <c r="Y3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>45533</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>564.91999999999996</v>
+      </c>
+      <c r="AC3" s="31" t="s">
         <v>26</v>
       </c>
       <c r="AE3" s="3" t="s">
@@ -1137,44 +2170,61 @@
       </c>
       <c r="AF3" s="7">
         <f>SUM(D2:D32)</f>
-        <v>103.8</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="11">
         <v>4</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="38">
         <v>23.8</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="16">
+      <c r="G4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
         <v>2</v>
       </c>
-      <c r="P4" s="14">
-        <v>70.790000000000006</v>
-      </c>
       <c r="Q4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>45545</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>11.29</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="AE4" s="1"/>
     </row>
@@ -1182,34 +2232,36 @@
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38">
+        <v>20</v>
+      </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="16">
+      <c r="M5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
         <v>2</v>
       </c>
       <c r="P5" s="14">
-        <v>72.790000000000006</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AE5" s="4" t="s">
@@ -1224,57 +2276,60 @@
       <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P6" s="14">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="M7" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="M7" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13">
-        <v>2</v>
-      </c>
-      <c r="P7" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="14">
+        <v>11.29</v>
+      </c>
       <c r="Q7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="33" t="s">
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AE7" s="6" t="s">
@@ -1282,475 +2337,545 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(P2:P26)</f>
-        <v>246.58000000000004</v>
+        <v>353.76</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
       <c r="M8" s="13" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13">
         <v>2</v>
       </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="14">
+        <v>70.790000000000006</v>
+      </c>
       <c r="Q8" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AE8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
       <c r="M9" s="13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13">
         <v>2</v>
       </c>
-      <c r="P9" s="14"/>
+      <c r="P9" s="14">
+        <v>72.790000000000006</v>
+      </c>
       <c r="Q9" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="AF9" s="10">
         <f>SUM(V2:V39)</f>
-        <v>0</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
       <c r="M10" s="13" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13">
-        <v>2</v>
-      </c>
-      <c r="P10" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="P10" s="14">
+        <v>45.96</v>
+      </c>
       <c r="Q10" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
       <c r="M11" s="13" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="14">
         <v>2</v>
       </c>
+      <c r="P11" s="14"/>
       <c r="Q11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AF11" s="32">
+      <c r="AF11" s="30">
         <f>SUM(AB2:AB27)</f>
-        <v>564.91999999999996</v>
+        <v>576.20999999999992</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
-      <c r="D12" s="37"/>
+      <c r="D12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="J12" s="37"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="2"/>
-      <c r="V12" s="37"/>
+      <c r="M12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <v>2</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" s="35"/>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="J13" s="37"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="2"/>
-      <c r="V13" s="37"/>
+      <c r="M13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="35"/>
       <c r="AB13" s="2"/>
-      <c r="AE13" s="20" t="s">
+      <c r="AE13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AF13" s="21">
+      <c r="AF13" s="19">
         <f>SUM(AF3,AF5,AF7,AF1,AF9,AF11)</f>
-        <v>3215.3</v>
+        <v>3369.75</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="J14" s="37"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="2"/>
-      <c r="V14" s="37"/>
+      <c r="M14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13">
+        <v>2</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="35"/>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
-      <c r="D15" s="37"/>
+      <c r="D15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="J15" s="37"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="2"/>
-      <c r="V15" s="37"/>
+      <c r="M15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13">
+        <v>6</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="35"/>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="2"/>
-      <c r="V16" s="37"/>
+      <c r="M16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="35"/>
       <c r="AB16" s="2"/>
-      <c r="AE16" s="25" t="s">
+      <c r="AE16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AF16" s="26" t="s">
+      <c r="AF16" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="2"/>
-      <c r="V17" s="37"/>
+      <c r="V17" s="35"/>
       <c r="AB17" s="2"/>
-      <c r="AE17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF17" s="28" t="s">
-        <v>28</v>
+      <c r="AE17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF17" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="J18" s="37"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="2"/>
-      <c r="V18" s="37"/>
+      <c r="V18" s="35"/>
       <c r="AB18" s="2"/>
-      <c r="AE18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF18" s="28" t="s">
-        <v>31</v>
+      <c r="AE18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF18" s="26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="2"/>
-      <c r="V19" s="37"/>
+      <c r="V19" s="35"/>
       <c r="AB19" s="2"/>
-      <c r="AE19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF19" s="28" t="s">
-        <v>32</v>
+      <c r="AE19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="J20" s="37"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="2"/>
-      <c r="V20" s="37"/>
+      <c r="V20" s="35"/>
       <c r="AB20" s="2"/>
-      <c r="AE20" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF20" s="28" t="s">
-        <v>33</v>
+      <c r="AE20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF20" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="J21" s="37"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="2"/>
-      <c r="V21" s="37"/>
+      <c r="V21" s="35"/>
       <c r="AB21" s="2"/>
-      <c r="AE21" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF21" s="30" t="s">
-        <v>34</v>
+      <c r="AE21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF21" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="V22" s="37"/>
+      <c r="V22" s="35"/>
       <c r="AB22" s="2"/>
+      <c r="AE22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="37"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="V23" s="37"/>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="37"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="V24" s="37"/>
+      <c r="V24" s="35"/>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="V25" s="37"/>
+      <c r="V25" s="35"/>
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="V26" s="37"/>
+      <c r="V26" s="35"/>
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="V27" s="37"/>
+      <c r="V27" s="35"/>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="J28" s="37"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="V28" s="37"/>
+      <c r="V28" s="35"/>
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="V29" s="37"/>
+      <c r="V29" s="35"/>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="D30" s="37"/>
+      <c r="D30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="J30" s="37"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="V30" s="37"/>
+      <c r="V30" s="35"/>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
-      <c r="D31" s="37"/>
+      <c r="D31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="J31" s="37"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="V31" s="37"/>
+      <c r="V31" s="35"/>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="J32" s="37"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="V32" s="37"/>
+      <c r="V32" s="35"/>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="J33" s="37"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="V33" s="37"/>
+      <c r="V33" s="35"/>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="J34" s="37"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="V34" s="37"/>
+      <c r="V34" s="35"/>
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="V35" s="37"/>
+      <c r="V35" s="35"/>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
-      <c r="D36" s="37"/>
+      <c r="D36" s="35"/>
       <c r="G36" s="2"/>
-      <c r="J36" s="37"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="V36" s="37"/>
+      <c r="V36" s="35"/>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
-      <c r="D37" s="37"/>
+      <c r="D37" s="35"/>
       <c r="G37" s="2"/>
-      <c r="J37" s="37"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="V37" s="37"/>
+      <c r="V37" s="35"/>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="35"/>
       <c r="G38" s="2"/>
-      <c r="J38" s="37"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="V38" s="37"/>
+      <c r="V38" s="35"/>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
-      <c r="D39" s="37"/>
+      <c r="D39" s="35"/>
       <c r="G39" s="2"/>
-      <c r="J39" s="37"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="V39" s="37"/>
+      <c r="V39" s="35"/>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="35"/>
       <c r="G40" s="2"/>
-      <c r="J40" s="37"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="V40" s="37"/>
+      <c r="V40" s="35"/>
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
-      <c r="D41" s="37"/>
+      <c r="D41" s="35"/>
       <c r="G41" s="2"/>
-      <c r="J41" s="37"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="V41" s="37"/>
+      <c r="V41" s="35"/>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
-      <c r="D42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="D42" s="35"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="V42" s="37"/>
+      <c r="V42" s="35"/>
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
-      <c r="D43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="D43" s="35"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="V43" s="37"/>
+      <c r="V43" s="35"/>
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
-      <c r="D44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="D44" s="35"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="2"/>
       <c r="P44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
-      <c r="D45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="D45" s="35"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="2"/>
       <c r="P45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D46" s="37"/>
-      <c r="J46" s="37"/>
+      <c r="D46" s="35"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="2"/>
       <c r="P46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D47" s="37"/>
-      <c r="J47" s="37"/>
+      <c r="D47" s="35"/>
+      <c r="J47" s="35"/>
       <c r="P47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="D48" s="35"/>
+      <c r="J48" s="35"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="37"/>
-      <c r="J49" s="37"/>
+      <c r="D49" s="35"/>
+      <c r="J49" s="35"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="D50" s="35"/>
+      <c r="J50" s="35"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="J51" s="37"/>
+      <c r="J51" s="35"/>
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.25">
@@ -1760,32 +2885,31 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
     <sortCondition ref="E1:E6"/>
   </sortState>
-  <conditionalFormatting sqref="K2:K44 E2:E44 W2:W44 AC2:AC44 Q23:Q44 Q2:Q21">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="W2:W22 K2:K44 E2:E44 Q23:Q44 Q2:Q21 W24:W44 AC4:AC44 AC2:AC3">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"OTW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+      <formula>"WIP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC44 W2:W44 K2:K44 E2:E44 Q23:Q44 Q2:Q21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"WIP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K44 E2:E44 W2:W44 AC2:AC44 Q23:Q44 Q2:Q21">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q11">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1796,6 +2920,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+      <formula>"PR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+      <formula>"ERR"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>"WIP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documents/Fun/93 Explorer Build Sheet.xlsx
+++ b/Documents/Fun/93 Explorer Build Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Documents\Fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F338962-55C9-4971-B0B8-C747011E952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E38494-EDD0-41CA-A93B-6D21C00997D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" xr2:uid="{33AAFDFF-1324-40FB-85B4-16FC7E9ED1E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>Price</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Brake Pads</t>
   </si>
   <si>
-    <t>Outer Tie Rods</t>
-  </si>
-  <si>
     <t>Left Tie Rod End</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>On The Way</t>
+  </si>
+  <si>
+    <t>https://redheadsteeringgears.com/2757</t>
   </si>
 </sst>
 </file>
@@ -532,43 +532,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="2" tint="-9.8025452436902985E-2"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -628,6 +592,42 @@
           </stop>
           <stop position="0.5">
             <color theme="9" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="1"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="1" tint="5.0965910824915313E-2"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="2" tint="-9.8025452436902985E-2"/>
           </stop>
           <stop position="1">
             <color theme="1"/>
@@ -705,889 +705,6 @@
             <color theme="1"/>
           </stop>
         </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="9" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="3" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="2" tint="-9.8025452436902985E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B050"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF0070C0"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="9" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="3" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="2" tint="-9.8025452436902985E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B050"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="315">
-          <stop position="0">
-            <color theme="4" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="9" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B050"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="315">
-          <stop position="0">
-            <color theme="4" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="9" tint="0.80001220740379042"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="-0.49803155613879818"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="1" tint="5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B050"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="1"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7"/>
-          </stop>
-          <stop position="1">
-            <color theme="1"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="315">
-          <stop position="0">
-            <color theme="4" tint="-0.25098422193060094"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.59999389629810485"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
       </fill>
     </dxf>
   </dxfs>
@@ -1912,7 +1029,7 @@
   <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +1177,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13">
@@ -2092,7 +1209,7 @@
         <v>45530</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="32"/>
       <c r="AC2" s="31" t="s">
@@ -2125,14 +1242,14 @@
         <v>25</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13">
         <v>1</v>
       </c>
       <c r="P3" s="14">
-        <v>12.99</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>27</v>
@@ -2157,7 +1274,7 @@
         <v>45533</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="32">
         <v>564.91999999999996</v>
@@ -2188,7 +1305,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12">
@@ -2199,15 +1316,13 @@
         <v>25</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13">
-        <v>1</v>
-      </c>
-      <c r="P4" s="14">
         <v>2</v>
       </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="13" t="s">
         <v>27</v>
       </c>
@@ -2243,14 +1358,14 @@
         <v>26</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="14">
-        <v>7</v>
+        <v>12.99</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>26</v>
@@ -2285,14 +1400,14 @@
         <v>25</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13">
         <v>2</v>
       </c>
       <c r="P6" s="14">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>26</v>
@@ -2311,14 +1426,14 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="M7" s="13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="14">
-        <v>11.29</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="13" t="s">
         <v>26</v>
@@ -2343,34 +1458,34 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="M8" s="13" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="14">
-        <v>70.790000000000006</v>
+        <v>11.29</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AE8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="M9" s="13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="14">
-        <v>72.790000000000006</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>18</v>
@@ -2383,14 +1498,14 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="M10" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="14">
-        <v>45.96</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>35</v>
@@ -2399,15 +1514,17 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="M11" s="13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13">
         <v>2</v>
       </c>
-      <c r="P11" s="14"/>
+      <c r="P11" s="14">
+        <v>72.790000000000006</v>
+      </c>
       <c r="Q11" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AE11" s="29" t="s">
         <v>43</v>
@@ -2424,15 +1541,17 @@
       <c r="J12" s="35"/>
       <c r="K12" s="2"/>
       <c r="M12" s="13" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13">
-        <v>2</v>
-      </c>
-      <c r="P12" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="P12" s="14">
+        <v>45.96</v>
+      </c>
       <c r="Q12" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="V12" s="35"/>
       <c r="AB12" s="2"/>
@@ -2491,7 +1610,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="2"/>
       <c r="M15" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13">
@@ -2510,19 +1629,6 @@
       <c r="G16" s="2"/>
       <c r="J16" s="35"/>
       <c r="K16" s="2"/>
-      <c r="M16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
-        <v>1</v>
-      </c>
-      <c r="P16" s="14">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="V16" s="35"/>
       <c r="AB16" s="2"/>
       <c r="AE16" s="23" t="s">
@@ -2538,13 +1644,16 @@
       <c r="G17" s="2"/>
       <c r="J17" s="35"/>
       <c r="K17" s="2"/>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
       <c r="V17" s="35"/>
       <c r="AB17" s="2"/>
       <c r="AE17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF17" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="AF17" s="26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.25">
@@ -2882,10 +1991,10 @@
       <c r="P52" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
-    <sortCondition ref="E1:E6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:Q15">
+    <sortCondition ref="Q1:Q15"/>
   </sortState>
-  <conditionalFormatting sqref="W2:W22 K2:K44 E2:E44 Q23:Q44 Q2:Q21 W24:W44 AC4:AC44 AC2:AC3">
+  <conditionalFormatting sqref="W2:W22 K2:K44 E2:E44 Q23:Q44 W24:W44 AC2:AC44 Q17:Q21 Q2:Q15">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"OTW"</formula>
     </cfRule>
@@ -2898,13 +2007,13 @@
     <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2921,26 +2030,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Fun/93 Explorer Build Sheet.xlsx
+++ b/Documents/Fun/93 Explorer Build Sheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Documents\Fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E38494-EDD0-41CA-A93B-6D21C00997D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E7767-1A58-494B-AB54-09A2984FD3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" xr2:uid="{33AAFDFF-1324-40FB-85B4-16FC7E9ED1E0}"/>
+    <workbookView xWindow="38340" yWindow="-420" windowWidth="16320" windowHeight="28470" xr2:uid="{33AAFDFF-1324-40FB-85B4-16FC7E9ED1E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gage Farmer (2024-Present)" sheetId="1" r:id="rId1"/>
+    <sheet name="Larry &amp; Lenna Haase (1994-2024)" sheetId="2" r:id="rId2"/>
+    <sheet name="Unknown (1993-1994)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
   <si>
     <t>Price</t>
   </si>
@@ -226,6 +228,186 @@
   </si>
   <si>
     <t>https://redheadsteeringgears.com/2757</t>
+  </si>
+  <si>
+    <t>Radiator Fan</t>
+  </si>
+  <si>
+    <t>Steering Box</t>
+  </si>
+  <si>
+    <t>Tires (Mastercraft :/ )</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Misc. Paperwork</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Maintenance Total</t>
+  </si>
+  <si>
+    <t>Credit Statement</t>
+  </si>
+  <si>
+    <t>Notice To Provide Insurance</t>
+  </si>
+  <si>
+    <t>Chilpaco Employees Credit Union</t>
+  </si>
+  <si>
+    <t>Bid Notice</t>
+  </si>
+  <si>
+    <t>Certificate of Title</t>
+  </si>
+  <si>
+    <t>Odometer: 18,700</t>
+  </si>
+  <si>
+    <t>Loan Agreement</t>
+  </si>
+  <si>
+    <t>Sunroof Letter</t>
+  </si>
+  <si>
+    <t>Ford Motor Company</t>
+  </si>
+  <si>
+    <t>Transmission Instructions</t>
+  </si>
+  <si>
+    <t>ABS Operation Instructions</t>
+  </si>
+  <si>
+    <t>Ford Explorer Paperwork</t>
+  </si>
+  <si>
+    <t>Sunroof Warning Sticker</t>
+  </si>
+  <si>
+    <t>Sunroof Installation Booklet</t>
+  </si>
+  <si>
+    <t>Firestone Recall Letter</t>
+  </si>
+  <si>
+    <t>Firestone Recall Packet</t>
+  </si>
+  <si>
+    <t>Car and Driver Article</t>
+  </si>
+  <si>
+    <t>Liftgate Recall Letter</t>
+  </si>
+  <si>
+    <t>Open Recall File</t>
+  </si>
+  <si>
+    <t>Printed from DOS!!!</t>
+  </si>
+  <si>
+    <t>Goodyear Auto Service Center</t>
+  </si>
+  <si>
+    <t>Oil Change / Filter</t>
+  </si>
+  <si>
+    <t>Maintenance Inspection</t>
+  </si>
+  <si>
+    <t>Nourse Family Of Dealers</t>
+  </si>
+  <si>
+    <t>Driver Mirror Glass</t>
+  </si>
+  <si>
+    <t>Davis Tire, Inc.</t>
+  </si>
+  <si>
+    <t>Rotation / Tighten Bearing / Lube</t>
+  </si>
+  <si>
+    <t>Penske Auto Center</t>
+  </si>
+  <si>
+    <t>Spark Plugs / Fuel Filter</t>
+  </si>
+  <si>
+    <t>P.M.W. Auto Repair</t>
+  </si>
+  <si>
+    <t>Front Brake Rotors</t>
+  </si>
+  <si>
+    <t>Midas</t>
+  </si>
+  <si>
+    <t>Radiator Flush / Therm Gasket</t>
+  </si>
+  <si>
+    <t>Liftgate Reinforcement Plate</t>
+  </si>
+  <si>
+    <t>Jerry Bibbee Ford, Inc.</t>
+  </si>
+  <si>
+    <t>Island Park Tire &amp; Auto</t>
+  </si>
+  <si>
+    <t>Transmission Flush</t>
+  </si>
+  <si>
+    <t>Turnpike of Gallipolis</t>
+  </si>
+  <si>
+    <t>Body, Chassis, Electrical Test</t>
+  </si>
+  <si>
+    <t>Muffler</t>
+  </si>
+  <si>
+    <t>Top Quality Auto Parts, Inc.</t>
+  </si>
+  <si>
+    <t>Racine Service Center</t>
+  </si>
+  <si>
+    <t>Oil Change / Filter / Coolant</t>
+  </si>
+  <si>
+    <t>Muffler / Tailpipe</t>
+  </si>
+  <si>
+    <t>Transfer Case Motor</t>
+  </si>
+  <si>
+    <t>Radius Arm Bushing</t>
+  </si>
+  <si>
+    <t>Trailer Hitch</t>
+  </si>
+  <si>
+    <t>Fred Rice's Body Shop</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>AutoZone 0743</t>
+  </si>
+  <si>
+    <t>Hanger Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Filter </t>
+  </si>
+  <si>
+    <t>6 Disc Changer</t>
   </si>
 </sst>
 </file>
@@ -290,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +539,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -458,8 +646,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -474,8 +682,9 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -515,13 +724,23 @@
     <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="12" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="11" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="14"/>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="14" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="7" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="12" builtinId="38"/>
     <cellStyle name="20% - Accent4" xfId="13" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Accent4" xfId="14" builtinId="44"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1026,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C052D86-1839-40C6-A45B-432136FE2162}">
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,9 +1285,10 @@
     <col min="30" max="30" width="9.140625" customWidth="1"/>
     <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1148,10 +1368,13 @@
         <v>9</v>
       </c>
       <c r="AF1" s="22">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>2320</v>
+      </c>
+      <c r="AG1" s="39">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -1268,7 +1491,7 @@
         <v>27</v>
       </c>
       <c r="Y3" s="31" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="33">
         <v>45533</v>
@@ -1290,7 +1513,7 @@
         <v>123.8</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1343,7 +1566,7 @@
       </c>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -1373,11 +1596,15 @@
       <c r="Y5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="31"/>
+      <c r="Z5" s="33">
+        <v>45565</v>
+      </c>
       <c r="AA5" s="31"/>
-      <c r="AB5" s="32"/>
+      <c r="AB5" s="32">
+        <v>44.88</v>
+      </c>
       <c r="AC5" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>4</v>
@@ -1387,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
@@ -1423,7 +1650,7 @@
       </c>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="M7" s="13" t="s">
         <v>20</v>
@@ -1452,10 +1679,10 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(P2:P26)</f>
-        <v>353.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>400.28999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="M8" s="13" t="s">
         <v>48</v>
@@ -1472,7 +1699,7 @@
       </c>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="M9" s="13" t="s">
         <v>54</v>
@@ -1495,7 +1722,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="M10" s="13" t="s">
         <v>11</v>
@@ -1508,10 +1735,10 @@
         <v>70.790000000000006</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="M11" s="13" t="s">
         <v>12</v>
@@ -1524,17 +1751,17 @@
         <v>72.790000000000006</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AE11" s="29" t="s">
         <v>43</v>
       </c>
       <c r="AF11" s="30">
         <f>SUM(AB2:AB27)</f>
-        <v>576.20999999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>621.08999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
@@ -1551,12 +1778,12 @@
         <v>45.96</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="V12" s="35"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="G13" s="2"/>
@@ -1580,10 +1807,10 @@
       </c>
       <c r="AF13" s="19">
         <f>SUM(AF3,AF5,AF7,AF1,AF9,AF11)</f>
-        <v>3369.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3481.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="G14" s="2"/>
@@ -1603,7 +1830,7 @@
       <c r="V14" s="35"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="G15" s="2"/>
@@ -1623,12 +1850,25 @@
       <c r="V15" s="35"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="G16" s="2"/>
       <c r="J16" s="35"/>
       <c r="K16" s="2"/>
+      <c r="M16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13">
+        <v>46.53</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="V16" s="35"/>
       <c r="AB16" s="2"/>
       <c r="AE16" s="23" t="s">
@@ -1644,8 +1884,18 @@
       <c r="G17" s="2"/>
       <c r="J17" s="35"/>
       <c r="K17" s="2"/>
-      <c r="M17" t="s">
+      <c r="M17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>63</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="V17" s="35"/>
       <c r="AB17" s="2"/>
@@ -1994,7 +2244,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:Q15">
     <sortCondition ref="Q1:Q15"/>
   </sortState>
-  <conditionalFormatting sqref="W2:W22 K2:K44 E2:E44 Q23:Q44 W24:W44 AC2:AC44 Q17:Q21 Q2:Q15">
+  <conditionalFormatting sqref="W2:W22 K2:K44 E2:E44 Q23:Q44 W24:W44 AC2:AC44 Q2:Q21">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"OTW"</formula>
     </cfRule>
@@ -2056,4 +2306,803 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1805A3F8-1B1A-48E7-83DE-49A0BB8FFCDB}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="33">
+        <v>34767</v>
+      </c>
+      <c r="C2" s="34">
+        <v>27790</v>
+      </c>
+      <c r="D2" s="32">
+        <v>17.03</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="33">
+        <v>34541</v>
+      </c>
+      <c r="I2" s="32">
+        <v>150</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="33">
+        <v>34514</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="33">
+        <v>34862</v>
+      </c>
+      <c r="C3" s="34">
+        <v>32805</v>
+      </c>
+      <c r="D3" s="32">
+        <v>17.03</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="33">
+        <v>34516</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="33">
+        <v>35255</v>
+      </c>
+      <c r="C4" s="34">
+        <v>42103</v>
+      </c>
+      <c r="D4" s="32">
+        <v>25.79</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="33">
+        <v>34530</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="33">
+        <v>35403</v>
+      </c>
+      <c r="C5" s="34">
+        <v>47946</v>
+      </c>
+      <c r="D5" s="32">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="L5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="33">
+        <v>34530</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="33">
+        <v>35403</v>
+      </c>
+      <c r="C6" s="34">
+        <v>47946</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="33">
+        <v>34533</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="33">
+        <v>35499</v>
+      </c>
+      <c r="C7" s="34">
+        <v>51775</v>
+      </c>
+      <c r="D7" s="32">
+        <v>57.46</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="33">
+        <v>34578</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="33">
+        <v>35678</v>
+      </c>
+      <c r="C8" s="34">
+        <v>58158</v>
+      </c>
+      <c r="D8" s="32">
+        <v>10.65</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="33">
+        <v>34973</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="33">
+        <v>35983</v>
+      </c>
+      <c r="C9" s="34">
+        <v>69470</v>
+      </c>
+      <c r="D9" s="32">
+        <v>313.48</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="8">
+        <f>19525+1269.13</f>
+        <v>20794.13</v>
+      </c>
+      <c r="I9" s="47">
+        <v>34514</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="33">
+        <v>35010</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="33">
+        <v>35992</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32">
+        <v>47.93</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="L10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="33">
+        <v>35855</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33">
+        <v>36033</v>
+      </c>
+      <c r="C11" s="34">
+        <v>70929</v>
+      </c>
+      <c r="D11" s="32">
+        <v>282.23</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="22">
+        <f>SUM(D2:D30)</f>
+        <v>2098.1100000000006</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="33">
+        <v>35855</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="33">
+        <v>36076</v>
+      </c>
+      <c r="C12" s="34">
+        <v>72960</v>
+      </c>
+      <c r="D12" s="32">
+        <v>102.88</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="L12" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="33">
+        <v>35855</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="33">
+        <v>36112</v>
+      </c>
+      <c r="C13" s="34">
+        <v>74160</v>
+      </c>
+      <c r="D13" s="32">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="22">
+        <f>SUM(I2)</f>
+        <v>150</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="33">
+        <v>36831</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="33">
+        <v>36214</v>
+      </c>
+      <c r="C14" s="34">
+        <v>77646</v>
+      </c>
+      <c r="D14" s="32">
+        <v>20.22</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="L14" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="33">
+        <v>36831</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="33">
+        <v>36362</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="32">
+        <v>87.44</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="G15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="22">
+        <f>I5</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="33">
+        <v>36831</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="33">
+        <v>36670</v>
+      </c>
+      <c r="C16" s="34">
+        <v>91478</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="33">
+        <v>37077</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32">
+        <v>23.8</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="45">
+        <f>SUM(H9,H11,H13,H15)</f>
+        <v>23042.240000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="33">
+        <v>37120</v>
+      </c>
+      <c r="C18" s="34">
+        <v>97776</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="33">
+        <v>37434</v>
+      </c>
+      <c r="C19" s="34">
+        <v>102678</v>
+      </c>
+      <c r="D19" s="32">
+        <v>13.73</v>
+      </c>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="33">
+        <v>37495</v>
+      </c>
+      <c r="C20" s="34">
+        <v>103905</v>
+      </c>
+      <c r="D20" s="32">
+        <v>53.13</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="33">
+        <v>37587</v>
+      </c>
+      <c r="C21" s="34">
+        <v>109165</v>
+      </c>
+      <c r="D21" s="32">
+        <v>13.77</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="33">
+        <v>37642</v>
+      </c>
+      <c r="C22" s="34">
+        <v>109165</v>
+      </c>
+      <c r="D22" s="32">
+        <v>105.99</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="33">
+        <v>37708</v>
+      </c>
+      <c r="C23" s="34">
+        <v>112537</v>
+      </c>
+      <c r="D23" s="32">
+        <v>13.77</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="33">
+        <v>37823</v>
+      </c>
+      <c r="C24" s="34">
+        <v>108764</v>
+      </c>
+      <c r="D24" s="32">
+        <v>30.98</v>
+      </c>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="33">
+        <v>38546</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32">
+        <v>125.19</v>
+      </c>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="33">
+        <v>38603</v>
+      </c>
+      <c r="C26" s="34">
+        <v>123000</v>
+      </c>
+      <c r="D26" s="32">
+        <v>233.31</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="33">
+        <v>40441</v>
+      </c>
+      <c r="C27" s="34">
+        <v>123800</v>
+      </c>
+      <c r="D27" s="32">
+        <v>233.49</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="33">
+        <v>41783</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32">
+        <v>136.21</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="33">
+        <v>42916</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32">
+        <v>11.25</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="33">
+        <v>42925</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32">
+        <v>85.75</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="B1:B30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AAD8F2-445E-4FCF-BB1A-9D934BED67F0}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="33">
+        <v>34199</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="33">
+        <v>34199</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Fun/93 Explorer Build Sheet.xlsx
+++ b/Documents/Fun/93 Explorer Build Sheet.xlsx
@@ -1,19 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Documents\Fun\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0FE9A-7331-4A47-A00A-6E7CF7B3BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gage Farmer (2024-Present)" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Larry &amp; Lenna Haase (1994-2024)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Unknown (1993-1994)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Gage Farmer (2024-Present)" sheetId="1" r:id="rId1"/>
+    <sheet name="Larry &amp; Lenna Haase (1994-2024)" sheetId="2" r:id="rId2"/>
+    <sheet name="Unknown (1993-1994)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,413 +36,397 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
-  <si>
-    <t xml:space="preserve">Interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drivetrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993 Ford Explorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rear View Mirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roof Rack Rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spark Plugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roof Rack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Drain Plug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interior Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front Window Motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brake Rotors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passenger Door Handle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Tie Rod End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rear Window Motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheel Hub Seals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brake Calipers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left Tie Rod End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rear Coilovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front Coilovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenace Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheel Hub Bearings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front Shocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rear Shocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spark Plug Wires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiator Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Acquired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steering Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://redheadsteeringgears.com/2757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On The Way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bearing Greaser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brake Pads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~126000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potential Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tires (Mastercraft :/ )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~126500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolant Flush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabin Air Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misc. Paperwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Change / Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goodyear Auto Service Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trailer Hitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fred Rice's Body Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid Notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilpaco Employees Credit Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver Mirror Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nourse Family Of Dealers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice To Provide Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Disc Changer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate of Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odometer: 18,700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation / Tighten Bearing / Lube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davis Tire, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penske Auto Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liftgate Recall Letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford Motor Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front Brake Rotors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Recall File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printed from DOS!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muffler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top Quality Auto Parts, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunroof Letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunroof Warning Sticker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spark Plugs / Fuel Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.M.W. Auto Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunroof Installation Booklet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firestone Recall Letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firestone Recall Packet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiator Flush / Therm Gasket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car and Driver Article</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liftgate Reinforcement Plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerry Bibbee Ford, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine Service Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turnpike of Gallipolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body, Chassis, Electrical Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island Park Tire &amp; Auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmission Flush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Change / Filter / Coolant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muffler / Tailpipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer Case Motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radius Arm Bushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoZone 0743</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>Drivetrain</t>
+  </si>
+  <si>
+    <t>1993 Ford Explorer</t>
+  </si>
+  <si>
+    <t>Rear View Mirror</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Roof Rack Rails</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Spark Plugs</t>
+  </si>
+  <si>
+    <t>Navigation System</t>
+  </si>
+  <si>
+    <t>Roof Rack</t>
+  </si>
+  <si>
+    <t>Oil Drain Plug</t>
+  </si>
+  <si>
+    <t>Interior Total</t>
+  </si>
+  <si>
+    <t>Front Window Motor</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Brake Rotors</t>
+  </si>
+  <si>
+    <t>Passenger Door Handle</t>
+  </si>
+  <si>
+    <t>Right Tie Rod End</t>
+  </si>
+  <si>
+    <t>Exterior Total</t>
+  </si>
+  <si>
+    <t>Rear Window Motor</t>
+  </si>
+  <si>
+    <t>Wheel Hub Seals</t>
+  </si>
+  <si>
+    <t>Brake Calipers</t>
+  </si>
+  <si>
+    <t>Performance Total</t>
+  </si>
+  <si>
+    <t>Air Filter</t>
+  </si>
+  <si>
+    <t>Left Tie Rod End</t>
+  </si>
+  <si>
+    <t>Tools Total</t>
+  </si>
+  <si>
+    <t>Rear Coilovers</t>
+  </si>
+  <si>
+    <t>Front Coilovers</t>
+  </si>
+  <si>
+    <t>Maintenace Total</t>
+  </si>
+  <si>
+    <t>Wheel Hub Bearings</t>
+  </si>
+  <si>
+    <t>Front Shocks</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Rear Shocks</t>
+  </si>
+  <si>
+    <t>Spark Plug Wires</t>
+  </si>
+  <si>
+    <t>Radiator Fan</t>
+  </si>
+  <si>
+    <t>Not Acquired</t>
+  </si>
+  <si>
+    <t>Steering Box</t>
+  </si>
+  <si>
+    <t>https://redheadsteeringgears.com/2757</t>
+  </si>
+  <si>
+    <t>OTW</t>
+  </si>
+  <si>
+    <t>On The Way</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Project Ready</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Bearing Greaser</t>
+  </si>
+  <si>
+    <t>Brake Pads</t>
+  </si>
+  <si>
+    <t>~126000</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>Potential Error</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
+    <t>Tires (Mastercraft :/ )</t>
+  </si>
+  <si>
+    <t>~126500</t>
+  </si>
+  <si>
+    <t>Oil Change</t>
+  </si>
+  <si>
+    <t>Coolant Flush</t>
+  </si>
+  <si>
+    <t>Cabin Air Filter</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Misc. Paperwork</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Oil Change / Filter</t>
+  </si>
+  <si>
+    <t>Goodyear Auto Service Center</t>
+  </si>
+  <si>
+    <t>Trailer Hitch</t>
+  </si>
+  <si>
+    <t>Fred Rice's Body Shop</t>
+  </si>
+  <si>
+    <t>Bid Notice</t>
+  </si>
+  <si>
+    <t>Chilpaco Employees Credit Union</t>
+  </si>
+  <si>
+    <t>Credit Statement</t>
+  </si>
+  <si>
+    <t>Driver Mirror Glass</t>
+  </si>
+  <si>
+    <t>Nourse Family Of Dealers</t>
+  </si>
+  <si>
+    <t>Notice To Provide Insurance</t>
+  </si>
+  <si>
+    <t>6 Disc Changer</t>
+  </si>
+  <si>
+    <t>Loan Agreement</t>
+  </si>
+  <si>
+    <t>Maintenance Inspection</t>
+  </si>
+  <si>
+    <t>Certificate of Title</t>
+  </si>
+  <si>
+    <t>Odometer: 18,700</t>
+  </si>
+  <si>
+    <t>Rotation / Tighten Bearing / Lube</t>
+  </si>
+  <si>
+    <t>Davis Tire, Inc.</t>
+  </si>
+  <si>
+    <t>Penske Auto Center</t>
+  </si>
+  <si>
+    <t>Liftgate Recall Letter</t>
+  </si>
+  <si>
+    <t>Ford Motor Company</t>
+  </si>
+  <si>
+    <t>Front Brake Rotors</t>
+  </si>
+  <si>
+    <t>Open Recall File</t>
+  </si>
+  <si>
+    <t>Printed from DOS!!!</t>
+  </si>
+  <si>
+    <t>Muffler</t>
+  </si>
+  <si>
+    <t>Top Quality Auto Parts, Inc.</t>
+  </si>
+  <si>
+    <t>Sunroof Letter</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
+    <t>Maintenance Total</t>
+  </si>
+  <si>
+    <t>Sunroof Warning Sticker</t>
+  </si>
+  <si>
+    <t>Spark Plugs / Fuel Filter</t>
+  </si>
+  <si>
+    <t>P.M.W. Auto Repair</t>
+  </si>
+  <si>
+    <t>Sunroof Installation Booklet</t>
+  </si>
+  <si>
+    <t>Firestone Recall Letter</t>
+  </si>
+  <si>
+    <t>Midas</t>
+  </si>
+  <si>
+    <t>Firestone Recall Packet</t>
+  </si>
+  <si>
+    <t>Radiator Flush / Therm Gasket</t>
+  </si>
+  <si>
+    <t>Car and Driver Article</t>
+  </si>
+  <si>
+    <t>Liftgate Reinforcement Plate</t>
+  </si>
+  <si>
+    <t>Jerry Bibbee Ford, Inc.</t>
+  </si>
+  <si>
+    <t>Racine Service Center</t>
+  </si>
+  <si>
+    <t>Turnpike of Gallipolis</t>
+  </si>
+  <si>
+    <t>Body, Chassis, Electrical Test</t>
+  </si>
+  <si>
+    <t>Island Park Tire &amp; Auto</t>
+  </si>
+  <si>
+    <t>Transmission Flush</t>
+  </si>
+  <si>
+    <t>Oil Change / Filter / Coolant</t>
+  </si>
+  <si>
+    <t>Muffler / Tailpipe</t>
+  </si>
+  <si>
+    <t>Transfer Case Motor</t>
+  </si>
+  <si>
+    <t>Radius Arm Bushing</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>AutoZone 0743</t>
   </si>
   <si>
     <t xml:space="preserve">Fuel Filter </t>
   </si>
   <si>
-    <t xml:space="preserve">Hanger Assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmission Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford Explorer Paperwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABS Operation Instructions</t>
+    <t>Hanger Assembly</t>
+  </si>
+  <si>
+    <t>Transmission Instructions</t>
+  </si>
+  <si>
+    <t>Ford Explorer Paperwork</t>
+  </si>
+  <si>
+    <t>ABS Operation Instructions</t>
+  </si>
+  <si>
+    <t>Dash Cam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,7 +436,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -446,7 +444,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -454,7 +452,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -462,7 +460,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -470,19 +468,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -566,14 +556,14 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -588,7 +578,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,49 +593,69 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -656,7 +666,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -666,289 +676,186 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="27" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="28" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="29" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="29" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="2" xfId="30" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="2" xfId="30" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="31" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="31" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="32" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="32" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="32" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="33" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="33" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="6" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="10" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="11" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="2" xfId="11" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="6" fillId="11" borderId="0" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="6" fillId="12" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="15">
+    <cellStyle name="Excel Built-in 20% - Accent1" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent3" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent4" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Excel Built-in 20% - Accent6" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Excel Built-in 60% - Accent4" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Excel Built-in Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Accent2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Accent3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Excel Built-in Accent4" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Excel Built-in Accent6" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in Calculation" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Excel Built-in Output" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Accent1" xfId="21"/>
-    <cellStyle name="Excel Built-in Accent2" xfId="22"/>
-    <cellStyle name="Excel Built-in Accent6" xfId="23"/>
-    <cellStyle name="Excel Built-in Accent3" xfId="24"/>
-    <cellStyle name="Excel Built-in 20% - Accent1" xfId="25"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Excel Built-in 20% - Accent2" xfId="26"/>
-    <cellStyle name="Excel Built-in 20% - Accent6" xfId="27"/>
-    <cellStyle name="Excel Built-in Accent4" xfId="28"/>
-    <cellStyle name="Excel Built-in Calculation" xfId="29"/>
-    <cellStyle name="Excel Built-in Output" xfId="30"/>
-    <cellStyle name="Excel Built-in 20% - Accent4" xfId="31"/>
-    <cellStyle name="Excel Built-in 20% - Accent3" xfId="32"/>
-    <cellStyle name="Excel Built-in 60% - Accent4" xfId="33"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED7D31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF005878"/>
+          <bgColor rgb="FF8D52AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2A411B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF860606"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF696868"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005828"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003860"/>
         </patternFill>
       </fill>
     </dxf>
@@ -968,99 +875,12 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF003860"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF005828"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF696868"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF860606"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2A411B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="00FFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8D52AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED7D31"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF005878"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1119,15 +939,33 @@
       <rgbColor rgb="FFFF5050"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1136,12 +974,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Mileage Over Time</a:t>
@@ -1164,10 +1002,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0723479612992398"/>
+          <c:x val="7.2347961299239802E-2"/>
           <c:y val="0.121994499157129"/>
-          <c:w val="0.848738769868694"/>
-          <c:h val="0.760713335107799"/>
+          <c:w val="0.84873876986869401"/>
+          <c:h val="0.76071333510779904"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1177,9 +1015,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1197,15 +1032,23 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1213,8 +1056,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1225,7 +1069,7 @@
             <c:numRef>
               <c:f>'Larry &amp; Lenna Haase (1994-2024)'!$C$2:$C$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>27790</c:v>
@@ -1297,7 +1141,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC15-458A-B607-961E0979E24E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1306,10 +1163,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="9980027"/>
         <c:axId val="88690048"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="9980027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1325,12 +1183,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Year</a:t>
@@ -1353,7 +1211,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1362,18 +1220,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88690048"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
         <c:axId val="88690048"/>
         <c:scaling>
@@ -1385,7 +1245,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1397,12 +1257,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Miles</a:t>
@@ -1425,7 +1285,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1434,10 +1294,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="9980027"/>
@@ -1448,27 +1309,33 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1482,14 +1349,20 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8619480" y="3657600"/>
-        <a:ext cx="8334720" cy="4057560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1502,55 +1375,347 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="1.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="1.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="9.71"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="17.5703125" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,22 +1764,22 @@
       <c r="S1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="6" t="n">
+      <c r="T1" s="6">
         <v>2320</v>
       </c>
-      <c r="U1" s="7" t="n">
+      <c r="U1" s="7">
         <v>45528</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1624,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="11">
         <v>2</v>
       </c>
       <c r="J2" s="12"/>
@@ -1635,25 +1800,25 @@
         <v>12</v>
       </c>
       <c r="N2" s="13"/>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="13">
         <v>6</v>
       </c>
-      <c r="P2" s="14" t="n">
+      <c r="P2" s="14">
         <v>47.94</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>62</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1663,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="12"/>
@@ -1674,10 +1839,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="13"/>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="13">
         <v>1</v>
       </c>
-      <c r="P3" s="14" t="n">
+      <c r="P3" s="14">
         <v>2</v>
       </c>
       <c r="Q3" s="13" t="s">
@@ -1686,20 +1851,20 @@
       <c r="S3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="15" t="n">
-        <f aca="false">SUM(D2:D19)</f>
-        <v>123.8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T3" s="15">
+        <f>SUM(D2:D19)</f>
+        <v>178.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>23.8</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1709,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="11">
         <v>4</v>
       </c>
       <c r="J4" s="11"/>
@@ -1720,7 +1885,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="13">
         <v>2</v>
       </c>
       <c r="P4" s="14"/>
@@ -1729,15 +1894,15 @@
       </c>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1748,10 +1913,10 @@
         <v>22</v>
       </c>
       <c r="N5" s="13"/>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="14" t="n">
+      <c r="P5" s="14">
         <v>12.99</v>
       </c>
       <c r="Q5" s="13" t="s">
@@ -1760,17 +1925,17 @@
       <c r="S5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="3" t="n">
-        <f aca="false">SUM(J2:J19)</f>
+      <c r="T5" s="3">
+        <f>SUM(J2:J19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="10"/>
@@ -1782,10 +1947,10 @@
         <v>25</v>
       </c>
       <c r="N6" s="13"/>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="13">
         <v>2</v>
       </c>
-      <c r="P6" s="14" t="n">
+      <c r="P6" s="14">
         <v>7</v>
       </c>
       <c r="Q6" s="13" t="s">
@@ -1793,18 +1958,29 @@
       </c>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="46">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="16"/>
       <c r="M7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="13"/>
-      <c r="O7" s="13" t="n">
+      <c r="O7" s="13">
         <v>2</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="14">
         <v>70</v>
       </c>
       <c r="Q7" s="13" t="s">
@@ -1813,12 +1989,12 @@
       <c r="S7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="19" t="n">
-        <f aca="false">SUM(P2:P26)</f>
-        <v>400.29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T7" s="19">
+        <f>SUM(P2:P26)</f>
+        <v>400.28999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D8" s="18"/>
       <c r="E8" s="16"/>
       <c r="K8" s="16"/>
@@ -1826,10 +2002,10 @@
         <v>28</v>
       </c>
       <c r="N8" s="13"/>
-      <c r="O8" s="13" t="n">
+      <c r="O8" s="13">
         <v>1</v>
       </c>
-      <c r="P8" s="14" t="n">
+      <c r="P8" s="14">
         <v>11.29</v>
       </c>
       <c r="Q8" s="13" t="s">
@@ -1839,7 +2015,7 @@
       <c r="W8" s="16"/>
       <c r="AC8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D9" s="18"/>
       <c r="E9" s="16"/>
       <c r="K9" s="16"/>
@@ -1847,10 +2023,10 @@
         <v>29</v>
       </c>
       <c r="N9" s="13"/>
-      <c r="O9" s="13" t="n">
+      <c r="O9" s="13">
         <v>1</v>
       </c>
-      <c r="P9" s="14" t="n">
+      <c r="P9" s="14">
         <v>13</v>
       </c>
       <c r="Q9" s="13" t="s">
@@ -1859,14 +2035,14 @@
       <c r="S9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="21" t="n">
-        <f aca="false">SUM(D22:D23)</f>
+      <c r="T9" s="21">
+        <f>SUM(D22:D23)</f>
         <v>15.98</v>
       </c>
       <c r="W9" s="16"/>
       <c r="AC9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D10" s="18"/>
       <c r="E10" s="16"/>
       <c r="K10" s="16"/>
@@ -1874,11 +2050,11 @@
         <v>31</v>
       </c>
       <c r="N10" s="13"/>
-      <c r="O10" s="13" t="n">
+      <c r="O10" s="13">
         <v>2</v>
       </c>
-      <c r="P10" s="14" t="n">
-        <v>70.79</v>
+      <c r="P10" s="14">
+        <v>70.790000000000006</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>18</v>
@@ -1886,7 +2062,7 @@
       <c r="W10" s="16"/>
       <c r="AC10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D11" s="18"/>
       <c r="E11" s="16"/>
       <c r="K11" s="16"/>
@@ -1894,11 +2070,11 @@
         <v>32</v>
       </c>
       <c r="N11" s="13"/>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="13">
         <v>2</v>
       </c>
-      <c r="P11" s="14" t="n">
-        <v>72.79</v>
+      <c r="P11" s="14">
+        <v>72.790000000000006</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>18</v>
@@ -1906,14 +2082,14 @@
       <c r="S11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="23" t="n">
-        <f aca="false">SUM(J22:J28)</f>
-        <v>621.09</v>
+      <c r="T11" s="23">
+        <f>SUM(J22:J28)</f>
+        <v>621.08999999999992</v>
       </c>
       <c r="W11" s="16"/>
       <c r="AC11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="16"/>
@@ -1924,10 +2100,10 @@
         <v>34</v>
       </c>
       <c r="N12" s="13"/>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="13">
         <v>4</v>
       </c>
-      <c r="P12" s="14" t="n">
+      <c r="P12" s="14">
         <v>45.96</v>
       </c>
       <c r="Q12" s="13" t="s">
@@ -1938,7 +2114,7 @@
       <c r="AB12" s="18"/>
       <c r="AC12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="16"/>
@@ -1949,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="N13" s="13"/>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="13">
         <v>2</v>
       </c>
       <c r="P13" s="14"/>
@@ -1959,16 +2135,16 @@
       <c r="S13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="26" t="n">
-        <f aca="false">SUM(T3,T5,T7,T1,T9,T11)</f>
-        <v>3481.16</v>
+      <c r="T13" s="26">
+        <f>SUM(T3,T5,T7,T1,T9,T11)</f>
+        <v>3536.16</v>
       </c>
       <c r="V13" s="24"/>
       <c r="W13" s="16"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="16"/>
@@ -1979,7 +2155,7 @@
         <v>37</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="13">
         <v>2</v>
       </c>
       <c r="P14" s="14"/>
@@ -1991,7 +2167,7 @@
       <c r="AB14" s="18"/>
       <c r="AC14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="16"/>
@@ -2002,7 +2178,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="13">
         <v>6</v>
       </c>
       <c r="P15" s="14"/>
@@ -2014,7 +2190,7 @@
       <c r="AB15" s="18"/>
       <c r="AC15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="16"/>
@@ -2025,10 +2201,10 @@
         <v>39</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="13" t="n">
+      <c r="O16" s="13">
         <v>1</v>
       </c>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="13">
         <v>46.53</v>
       </c>
       <c r="Q16" s="13" t="s">
@@ -2045,7 +2221,7 @@
       <c r="AB16" s="18"/>
       <c r="AC16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="16"/>
@@ -2058,7 +2234,7 @@
       <c r="N17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="13" t="n">
+      <c r="O17" s="13">
         <v>1</v>
       </c>
       <c r="P17" s="13"/>
@@ -2076,7 +2252,7 @@
       <c r="AB17" s="18"/>
       <c r="AC17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="16"/>
@@ -2095,7 +2271,7 @@
       <c r="AB18" s="18"/>
       <c r="AC18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="16"/>
@@ -2114,7 +2290,7 @@
       <c r="AB19" s="18"/>
       <c r="AC19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="16"/>
@@ -2133,7 +2309,7 @@
       <c r="AB20" s="18"/>
       <c r="AC20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -2176,15 +2352,15 @@
       <c r="AB21" s="18"/>
       <c r="AC21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="31"/>
-      <c r="C22" s="31" t="n">
+      <c r="C22" s="31">
         <v>1</v>
       </c>
-      <c r="D22" s="32" t="n">
+      <c r="D22" s="32">
         <v>7.99</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -2193,7 +2369,7 @@
       <c r="G22" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="34" t="n">
+      <c r="H22" s="34">
         <v>45530</v>
       </c>
       <c r="I22" s="33" t="s">
@@ -2215,15 +2391,15 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="31" t="n">
+      <c r="C23" s="31">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="n">
+      <c r="D23" s="32">
         <v>7.99</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -2232,14 +2408,14 @@
       <c r="G23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="34" t="n">
+      <c r="H23" s="34">
         <v>45533</v>
       </c>
       <c r="I23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="35" t="n">
-        <v>564.92</v>
+      <c r="J23" s="35">
+        <v>564.91999999999996</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>18</v>
@@ -2249,16 +2425,16 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" s="16"/>
       <c r="G24" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="34" t="n">
+      <c r="H24" s="34">
         <v>45545</v>
       </c>
       <c r="I24" s="33"/>
-      <c r="J24" s="35" t="n">
+      <c r="J24" s="35">
         <v>11.29</v>
       </c>
       <c r="K24" s="33" t="s">
@@ -2271,16 +2447,16 @@
       <c r="AB24" s="18"/>
       <c r="AC24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E25" s="16"/>
       <c r="G25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="34" t="n">
+      <c r="H25" s="34">
         <v>45565</v>
       </c>
       <c r="I25" s="33"/>
-      <c r="J25" s="35" t="n">
+      <c r="J25" s="35">
         <v>44.88</v>
       </c>
       <c r="K25" s="33" t="s">
@@ -2293,7 +2469,7 @@
       <c r="AB25" s="18"/>
       <c r="AC25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E26" s="16"/>
       <c r="G26" s="33" t="s">
         <v>64</v>
@@ -2311,7 +2487,7 @@
       <c r="AB26" s="18"/>
       <c r="AC26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E27" s="16"/>
       <c r="G27" s="33" t="s">
         <v>65</v>
@@ -2329,7 +2505,7 @@
       <c r="AB27" s="18"/>
       <c r="AC27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="16"/>
@@ -2343,7 +2519,7 @@
       <c r="AB28" s="18"/>
       <c r="AC28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
@@ -2357,7 +2533,7 @@
       <c r="AB29" s="18"/>
       <c r="AC29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
@@ -2371,7 +2547,7 @@
       <c r="AB30" s="18"/>
       <c r="AC30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="16"/>
@@ -2385,7 +2561,7 @@
       <c r="AB31" s="18"/>
       <c r="AC31" s="16"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
@@ -2399,7 +2575,7 @@
       <c r="AB32" s="18"/>
       <c r="AC32" s="16"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="16"/>
@@ -2413,7 +2589,7 @@
       <c r="AB33" s="18"/>
       <c r="AC33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
@@ -2427,7 +2603,7 @@
       <c r="AB34" s="18"/>
       <c r="AC34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="16"/>
@@ -2441,7 +2617,7 @@
       <c r="AB35" s="18"/>
       <c r="AC35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C36" s="18"/>
       <c r="D36" s="24"/>
       <c r="E36" s="16"/>
@@ -2455,7 +2631,7 @@
       <c r="AB36" s="18"/>
       <c r="AC36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C37" s="18"/>
       <c r="D37" s="24"/>
       <c r="E37" s="16"/>
@@ -2469,7 +2645,7 @@
       <c r="AB37" s="18"/>
       <c r="AC37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C38" s="18"/>
       <c r="D38" s="24"/>
       <c r="E38" s="16"/>
@@ -2483,7 +2659,7 @@
       <c r="AB38" s="18"/>
       <c r="AC38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C39" s="18"/>
       <c r="D39" s="24"/>
       <c r="E39" s="16"/>
@@ -2497,7 +2673,7 @@
       <c r="AB39" s="18"/>
       <c r="AC39" s="16"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C40" s="18"/>
       <c r="D40" s="24"/>
       <c r="E40" s="16"/>
@@ -2511,7 +2687,7 @@
       <c r="AB40" s="18"/>
       <c r="AC40" s="16"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C41" s="18"/>
       <c r="D41" s="24"/>
       <c r="E41" s="16"/>
@@ -2525,7 +2701,7 @@
       <c r="AB41" s="18"/>
       <c r="AC41" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C42" s="18"/>
       <c r="D42" s="24"/>
       <c r="E42" s="16"/>
@@ -2538,7 +2714,7 @@
       <c r="AB42" s="18"/>
       <c r="AC42" s="16"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C43" s="18"/>
       <c r="D43" s="24"/>
       <c r="E43" s="16"/>
@@ -2551,7 +2727,7 @@
       <c r="AB43" s="18"/>
       <c r="AC43" s="16"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C44" s="18"/>
       <c r="D44" s="24"/>
       <c r="E44" s="16"/>
@@ -2563,7 +2739,7 @@
       <c r="AB44" s="18"/>
       <c r="AC44" s="16"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C45" s="18"/>
       <c r="D45" s="24"/>
       <c r="J45" s="24"/>
@@ -2571,71 +2747,71 @@
       <c r="P45" s="18"/>
       <c r="AB45" s="18"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="18"/>
       <c r="P46" s="18"/>
       <c r="AB46" s="18"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D47" s="24"/>
       <c r="J47" s="24"/>
       <c r="P47" s="18"/>
       <c r="AB47" s="18"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
       <c r="D48" s="24"/>
       <c r="J48" s="24"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D49" s="24"/>
       <c r="J49" s="24"/>
       <c r="P49" s="18"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D50" s="24"/>
       <c r="J50" s="24"/>
       <c r="P50" s="18"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:16" x14ac:dyDescent="0.25">
       <c r="J51" s="24"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
       <c r="P52" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="W2:W22 K22:K44 E22:E44 Q23:Q44 W24:W44 AC2:AC44 Q2:Q21 E2:E20 K2:K20">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"OTW"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q11">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -2643,75 +2819,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.71"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>51</v>
       </c>
@@ -2749,17 +2917,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="34">
         <v>34767</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="38">
         <v>27790</v>
       </c>
-      <c r="D2" s="35" t="n">
+      <c r="D2" s="35">
         <v>17.03</v>
       </c>
       <c r="E2" s="33" t="s">
@@ -2768,10 +2936,10 @@
       <c r="G2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="34" t="n">
+      <c r="H2" s="34">
         <v>34541</v>
       </c>
-      <c r="I2" s="35" t="n">
+      <c r="I2" s="35">
         <v>150</v>
       </c>
       <c r="J2" s="33" t="s">
@@ -2780,24 +2948,24 @@
       <c r="L2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="34" t="n">
+      <c r="M2" s="34">
         <v>34514</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="34">
         <v>34862</v>
       </c>
-      <c r="C3" s="38" t="n">
+      <c r="C3" s="38">
         <v>32805</v>
       </c>
-      <c r="D3" s="35" t="n">
+      <c r="D3" s="35">
         <v>17.03</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -2806,24 +2974,24 @@
       <c r="L3" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="34" t="n">
+      <c r="M3" s="34">
         <v>34516</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="34">
         <v>35255</v>
       </c>
-      <c r="C4" s="38" t="n">
+      <c r="C4" s="38">
         <v>42103</v>
       </c>
-      <c r="D4" s="35" t="n">
+      <c r="D4" s="35">
         <v>25.79</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -2844,24 +3012,24 @@
       <c r="L4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="34" t="n">
+      <c r="M4" s="34">
         <v>34530</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="34" t="n">
+      <c r="B5" s="34">
         <v>35403</v>
       </c>
-      <c r="C5" s="38" t="n">
+      <c r="C5" s="38">
         <v>47946</v>
       </c>
-      <c r="D5" s="35" t="n">
+      <c r="D5" s="35">
         <v>17</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -2876,24 +3044,24 @@
       <c r="L5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="34" t="n">
+      <c r="M5" s="34">
         <v>34530</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="34" t="n">
+      <c r="B6" s="34">
         <v>35403</v>
       </c>
-      <c r="C6" s="38" t="n">
+      <c r="C6" s="38">
         <v>47946</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D6" s="35">
         <v>0</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -2902,24 +3070,24 @@
       <c r="L6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="34" t="n">
+      <c r="M6" s="34">
         <v>34533</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="34" t="n">
+      <c r="B7" s="34">
         <v>35499</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="38">
         <v>51775</v>
       </c>
-      <c r="D7" s="35" t="n">
+      <c r="D7" s="35">
         <v>57.46</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -2928,24 +3096,24 @@
       <c r="L7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="34" t="n">
+      <c r="M7" s="34">
         <v>34578</v>
       </c>
       <c r="N7" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="34" t="n">
+      <c r="B8" s="34">
         <v>35678</v>
       </c>
-      <c r="C8" s="38" t="n">
+      <c r="C8" s="38">
         <v>58158</v>
       </c>
-      <c r="D8" s="35" t="n">
+      <c r="D8" s="35">
         <v>10.65</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -2954,24 +3122,24 @@
       <c r="L8" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="34" t="n">
+      <c r="M8" s="34">
         <v>34973</v>
       </c>
       <c r="N8" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="34" t="n">
+      <c r="B9" s="34">
         <v>35983</v>
       </c>
-      <c r="C9" s="38" t="n">
+      <c r="C9" s="38">
         <v>69470</v>
       </c>
-      <c r="D9" s="35" t="n">
+      <c r="D9" s="35">
         <v>313.48</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -2980,32 +3148,32 @@
       <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="19" t="n">
-        <f aca="false">19525+1269.13</f>
+      <c r="H9" s="19">
+        <f>19525+1269.13</f>
         <v>20794.13</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="43">
         <v>34514</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="34" t="n">
+      <c r="M9" s="34">
         <v>35010</v>
       </c>
       <c r="N9" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="34" t="n">
+      <c r="B10" s="34">
         <v>35992</v>
       </c>
       <c r="C10" s="33"/>
-      <c r="D10" s="35" t="n">
+      <c r="D10" s="35">
         <v>47.93</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3015,24 +3183,24 @@
       <c r="L10" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="34" t="n">
+      <c r="M10" s="34">
         <v>35855</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="34">
         <v>36033</v>
       </c>
-      <c r="C11" s="38" t="n">
+      <c r="C11" s="38">
         <v>70929</v>
       </c>
-      <c r="D11" s="35" t="n">
+      <c r="D11" s="35">
         <v>282.23</v>
       </c>
       <c r="E11" s="33" t="s">
@@ -3041,31 +3209,31 @@
       <c r="G11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <f aca="false">SUM(D2:D30)</f>
-        <v>2098.11</v>
+      <c r="H11" s="6">
+        <f>SUM(D2:D30)</f>
+        <v>2098.1100000000006</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="34" t="n">
+      <c r="M11" s="34">
         <v>35855</v>
       </c>
       <c r="N11" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="34" t="n">
+      <c r="B12" s="34">
         <v>36076</v>
       </c>
-      <c r="C12" s="38" t="n">
+      <c r="C12" s="38">
         <v>72960</v>
       </c>
-      <c r="D12" s="35" t="n">
+      <c r="D12" s="35">
         <v>102.88</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -3075,25 +3243,25 @@
       <c r="L12" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="34" t="n">
+      <c r="M12" s="34">
         <v>35855</v>
       </c>
       <c r="N12" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="34" t="n">
+      <c r="B13" s="34">
         <v>36112</v>
       </c>
-      <c r="C13" s="38" t="n">
+      <c r="C13" s="38">
         <v>74160</v>
       </c>
-      <c r="D13" s="35" t="n">
-        <v>18.6</v>
+      <c r="D13" s="35">
+        <v>18.600000000000001</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>86</v>
@@ -3101,31 +3269,31 @@
       <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <f aca="false">SUM(I2)</f>
+      <c r="H13" s="6">
+        <f>SUM(I2)</f>
         <v>150</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="34" t="n">
+      <c r="M13" s="34">
         <v>36831</v>
       </c>
       <c r="N13" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="34" t="n">
+      <c r="B14" s="34">
         <v>36214</v>
       </c>
-      <c r="C14" s="38" t="n">
+      <c r="C14" s="38">
         <v>77646</v>
       </c>
-      <c r="D14" s="35" t="n">
+      <c r="D14" s="35">
         <v>20.22</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3135,68 +3303,68 @@
       <c r="L14" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="34" t="n">
+      <c r="M14" s="34">
         <v>36831</v>
       </c>
       <c r="N14" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="34" t="n">
+      <c r="B15" s="34">
         <v>36362</v>
       </c>
       <c r="C15" s="38"/>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="35">
         <v>87.44</v>
       </c>
       <c r="E15" s="33"/>
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="6" t="n">
-        <f aca="false">I5</f>
+      <c r="H15" s="6">
+        <f>I5</f>
         <v>0</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="M15" s="34" t="n">
+      <c r="M15" s="34">
         <v>36831</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="34" t="n">
+      <c r="B16" s="34">
         <v>36670</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="38">
         <v>91478</v>
       </c>
-      <c r="D16" s="35" t="n">
+      <c r="D16" s="35">
         <v>0</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="34" t="n">
+      <c r="B17" s="34">
         <v>37077</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="35">
         <v>23.8</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3205,212 +3373,212 @@
       <c r="G17" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="45" t="n">
-        <f aca="false">SUM(H9,H11,H13,H15)</f>
-        <v>23042.24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="45">
+        <f>SUM(H9,H11,H13,H15)</f>
+        <v>23042.240000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="34" t="n">
+      <c r="B18" s="34">
         <v>37120</v>
       </c>
-      <c r="C18" s="38" t="n">
+      <c r="C18" s="38">
         <v>97776</v>
       </c>
-      <c r="D18" s="35" t="n">
+      <c r="D18" s="35">
         <v>0</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="34">
         <v>37434</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="38">
         <v>102678</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="35">
         <v>13.73</v>
       </c>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="34">
         <v>37495</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="38">
         <v>103905</v>
       </c>
-      <c r="D20" s="35" t="n">
+      <c r="D20" s="35">
         <v>53.13</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="34">
         <v>37587</v>
       </c>
-      <c r="C21" s="38" t="n">
+      <c r="C21" s="38">
         <v>109165</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="35">
         <v>13.77</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="34" t="n">
+      <c r="B22" s="34">
         <v>37642</v>
       </c>
-      <c r="C22" s="38" t="n">
+      <c r="C22" s="38">
         <v>109165</v>
       </c>
-      <c r="D22" s="35" t="n">
+      <c r="D22" s="35">
         <v>105.99</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="34">
         <v>37708</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="38">
         <v>112537</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="35">
         <v>13.77</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="34" t="n">
+      <c r="B24" s="34">
         <v>37823</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="38">
         <v>108764</v>
       </c>
-      <c r="D24" s="35" t="n">
+      <c r="D24" s="35">
         <v>30.98</v>
       </c>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="34" t="n">
+      <c r="B25" s="34">
         <v>38546</v>
       </c>
       <c r="C25" s="33"/>
-      <c r="D25" s="35" t="n">
+      <c r="D25" s="35">
         <v>125.19</v>
       </c>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="34" t="n">
+      <c r="B26" s="34">
         <v>38603</v>
       </c>
-      <c r="C26" s="38" t="n">
+      <c r="C26" s="38">
         <v>123000</v>
       </c>
-      <c r="D26" s="35" t="n">
+      <c r="D26" s="35">
         <v>233.31</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="34" t="n">
+      <c r="B27" s="34">
         <v>40441</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="38">
         <v>123800</v>
       </c>
-      <c r="D27" s="35" t="n">
+      <c r="D27" s="35">
         <v>233.49</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="34" t="n">
+      <c r="B28" s="34">
         <v>41783</v>
       </c>
       <c r="C28" s="33"/>
-      <c r="D28" s="35" t="n">
+      <c r="D28" s="35">
         <v>136.21</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="34" t="n">
+      <c r="B29" s="34">
         <v>42916</v>
       </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="35" t="n">
+      <c r="D29" s="35">
         <v>11.25</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="34" t="n">
+      <c r="B30" s="34">
         <v>42925</v>
       </c>
       <c r="C30" s="33"/>
-      <c r="D30" s="35" t="n">
+      <c r="D30" s="35">
         <v>85.75</v>
       </c>
       <c r="E30" s="33" t="s">
@@ -3418,36 +3586,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.28"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>67</v>
       </c>
@@ -3458,22 +3618,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="34">
         <v>34199</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="34">
         <v>34199</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -3481,12 +3641,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Documents/Fun/93 Explorer Build Sheet.xlsx
+++ b/Documents/Fun/93 Explorer Build Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Documents\Fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA0FE9A-7331-4A47-A00A-6E7CF7B3BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E49B8-46C0-412E-905A-DB3AFFF2EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Larry &amp; Lenna Haase (1994-2024)" sheetId="2" r:id="rId2"/>
     <sheet name="Unknown (1993-1994)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -965,24 +965,41 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Mileage Over Time</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Mileage Over</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -990,24 +1007,35 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.2347961299239802E-2"/>
-          <c:y val="0.121994499157129"/>
-          <c:w val="0.84873876986869401"/>
-          <c:h val="0.76071333510779904"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1015,56 +1043,104 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28800">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Larry &amp; Lenna Haase (1994-2024)'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>34767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36033</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36076</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36362</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36670</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37077</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37587</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37642</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37708</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37823</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38603</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Larry &amp; Lenna Haase (1994-2024)'!$C$2:$C$27</c:f>
@@ -1143,7 +1219,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC15-458A-B607-961E0979E24E}"/>
+              <c16:uniqueId val="{00000000-3276-47C0-9419-3FB54DDA52BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1155,87 +1231,62 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="9980027"/>
-        <c:axId val="88690048"/>
+        <c:axId val="608230112"/>
+        <c:axId val="193206224"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="9980027"/>
+      <c:dateAx>
+        <c:axId val="608230112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45316"/>
-          <c:min val="33970"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="mm/yy" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88690048"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="193206224"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="88690048"/>
+        <c:axId val="193206224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,89 +1294,97 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Miles</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9980027"/>
+        <c:crossAx val="608230112"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1334,27 +1393,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2259720</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8FC894-E29C-43CC-BACC-A939588E9C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +2290,7 @@
   <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,7 +3467,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,7 +4212,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Fun/93 Explorer Build Sheet.xlsx
+++ b/Documents/Fun/93 Explorer Build Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Documents\Fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E49B8-46C0-412E-905A-DB3AFFF2EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F709091-30C8-40D9-9667-282860B5794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>Interior</t>
   </si>
@@ -68,9 +68,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Roof Rack Rails</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -411,13 +408,24 @@
   </si>
   <si>
     <t>Dash Cam</t>
+  </si>
+  <si>
+    <t>Front Struts</t>
+  </si>
+  <si>
+    <t>Tow Truck</t>
+  </si>
+  <si>
+    <t>Radiator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -693,7 +701,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -742,6 +750,10 @@
     <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="6" fillId="6" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="0" fillId="12" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Excel Built-in 20% - Accent1" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -760,7 +772,217 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2A411B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF860606"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF696868"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005828"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003860"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF806000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2A411B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF860606"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF696868"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005828"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003860"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF806000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2A411B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF860606"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF696868"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005828"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003860"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF806000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005878"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2290,7 +2512,7 @@
   <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,18 +2623,18 @@
         <v>9</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13">
@@ -2427,7 +2649,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="8">
@@ -2440,18 +2662,18 @@
         <v>9</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13">
@@ -2464,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T3" s="15">
         <f>SUM(D2:D19)</f>
@@ -2473,7 +2695,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="8">
@@ -2483,21 +2705,10 @@
         <v>23.8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13">
@@ -2511,7 +2722,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="8">
@@ -2521,11 +2732,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="16"/>
       <c r="M5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13">
@@ -2535,10 +2746,10 @@
         <v>12.99</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" s="3">
         <f>SUM(J2:J19)</f>
@@ -2547,7 +2758,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8">
@@ -2555,11 +2766,11 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="16"/>
       <c r="M6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13">
@@ -2569,27 +2780,27 @@
         <v>7</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="48">
         <v>55</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="16"/>
       <c r="M7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13">
@@ -2599,14 +2810,14 @@
         <v>70</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T7" s="19">
         <f>SUM(P2:P26)</f>
-        <v>400.28999999999996</v>
+        <v>1000.29</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -2614,7 +2825,7 @@
       <c r="E8" s="16"/>
       <c r="K8" s="16"/>
       <c r="M8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13">
@@ -2624,7 +2835,7 @@
         <v>11.29</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S8" s="17"/>
       <c r="W8" s="16"/>
@@ -2635,7 +2846,7 @@
       <c r="E9" s="16"/>
       <c r="K9" s="16"/>
       <c r="M9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13">
@@ -2645,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T9" s="21">
         <f>SUM(D22:D23)</f>
@@ -2662,7 +2873,7 @@
       <c r="E10" s="16"/>
       <c r="K10" s="16"/>
       <c r="M10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13">
@@ -2672,7 +2883,7 @@
         <v>70.790000000000006</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W10" s="16"/>
       <c r="AC10" s="16"/>
@@ -2682,7 +2893,7 @@
       <c r="E11" s="16"/>
       <c r="K11" s="16"/>
       <c r="M11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13">
@@ -2692,14 +2903,14 @@
         <v>72.790000000000006</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="23">
-        <f>SUM(J22:J28)</f>
-        <v>621.08999999999992</v>
+        <f>SUM(J22:J36)</f>
+        <v>1871.09</v>
       </c>
       <c r="W11" s="16"/>
       <c r="AC11" s="16"/>
@@ -2712,7 +2923,7 @@
       <c r="J12" s="24"/>
       <c r="K12" s="18"/>
       <c r="M12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13">
@@ -2722,7 +2933,7 @@
         <v>45.96</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V12" s="24"/>
       <c r="W12" s="16"/>
@@ -2737,7 +2948,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="18"/>
       <c r="M13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13">
@@ -2745,14 +2956,14 @@
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T13" s="26">
         <f>SUM(T3,T5,T7,T1,T9,T11)</f>
-        <v>3536.16</v>
+        <v>5386.16</v>
       </c>
       <c r="V13" s="24"/>
       <c r="W13" s="16"/>
@@ -2767,7 +2978,7 @@
       <c r="J14" s="24"/>
       <c r="K14" s="18"/>
       <c r="M14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13">
@@ -2775,7 +2986,7 @@
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="16"/>
@@ -2790,7 +3001,7 @@
       <c r="J15" s="24"/>
       <c r="K15" s="18"/>
       <c r="M15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13">
@@ -2798,7 +3009,7 @@
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" s="24"/>
       <c r="W15" s="16"/>
@@ -2813,23 +3024,23 @@
       <c r="J16" s="24"/>
       <c r="K16" s="18"/>
       <c r="M16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13">
         <v>1</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="49">
         <v>46.53</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="16"/>
@@ -2844,23 +3055,23 @@
       <c r="J17" s="24"/>
       <c r="K17" s="18"/>
       <c r="M17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="O17" s="13">
         <v>1</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="16"/>
@@ -2874,12 +3085,22 @@
       <c r="G18" s="18"/>
       <c r="J18" s="24"/>
       <c r="K18" s="18"/>
-      <c r="Q18" s="16"/>
+      <c r="M18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13">
+        <v>2</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="S18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="T18" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V18" s="24"/>
       <c r="W18" s="16"/>
@@ -2893,12 +3114,24 @@
       <c r="G19" s="18"/>
       <c r="J19" s="24"/>
       <c r="K19" s="18"/>
-      <c r="Q19" s="16"/>
+      <c r="M19" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13">
+        <v>1</v>
+      </c>
+      <c r="P19" s="51">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="S19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="30" t="s">
         <v>46</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>47</v>
       </c>
       <c r="V19" s="24"/>
       <c r="W19" s="16"/>
@@ -2914,10 +3147,10 @@
       <c r="K20" s="18"/>
       <c r="Q20" s="16"/>
       <c r="S20" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="T20" s="30" t="s">
-        <v>49</v>
       </c>
       <c r="V20" s="24"/>
       <c r="W20" s="16"/>
@@ -2926,7 +3159,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>1</v>
@@ -2941,13 +3174,13 @@
         <v>4</v>
       </c>
       <c r="G21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="I21" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>3</v>
@@ -2957,10 +3190,10 @@
       </c>
       <c r="Q21" s="16"/>
       <c r="S21" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V21" s="24"/>
       <c r="W21" s="16"/>
@@ -2969,7 +3202,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31">
@@ -2982,24 +3215,24 @@
         <v>9</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="34">
         <v>45530</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P22" s="18"/>
       <c r="S22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" s="37" t="s">
         <v>58</v>
-      </c>
-      <c r="T22" s="37" t="s">
-        <v>59</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="16"/>
@@ -3008,7 +3241,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31">
@@ -3021,19 +3254,19 @@
         <v>9</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="34">
         <v>45533</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="35">
         <v>564.91999999999996</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="16"/>
@@ -3043,7 +3276,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" s="16"/>
       <c r="G24" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="34">
         <v>45545</v>
@@ -3053,7 +3286,7 @@
         <v>11.29</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="16"/>
@@ -3065,7 +3298,7 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E25" s="16"/>
       <c r="G25" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="34">
         <v>45565</v>
@@ -3075,7 +3308,7 @@
         <v>44.88</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="16"/>
@@ -3087,13 +3320,15 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E26" s="16"/>
       <c r="G26" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="35">
+        <v>600</v>
+      </c>
       <c r="K26" s="33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="16"/>
@@ -3105,13 +3340,13 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E27" s="16"/>
       <c r="G27" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="35"/>
       <c r="K27" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="16"/>
@@ -3124,9 +3359,17 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="18"/>
+      <c r="G28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="50">
+        <v>360</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="16"/>
       <c r="V28" s="24"/>
@@ -3138,9 +3381,17 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16"/>
-      <c r="G29" s="18"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="18"/>
+      <c r="G29" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="50">
+        <v>80</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="16"/>
       <c r="V29" s="24"/>
@@ -3152,9 +3403,17 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16"/>
-      <c r="G30" s="18"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="18"/>
+      <c r="G30" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="50">
+        <v>210</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="16"/>
       <c r="V30" s="24"/>
@@ -3166,9 +3425,6 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="16"/>
-      <c r="G31" s="18"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="16"/>
       <c r="V31" s="24"/>
@@ -3398,31 +3654,31 @@
       <c r="P52" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W2:W22 K22:K44 E22:E44 Q23:Q44 W24:W44 AC2:AC44 Q2:Q21 E2:E20 K2:K20">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="W2:W22 E22:E44 Q23:Q44 W24:W44 AC2:AC44 Q2:Q21 E2:E20 K5:K20 K2:K3 K32:K44 K22:K27">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>"OTW"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q11">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3434,26 +3690,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"PR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:K29">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"OTW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"WIP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"PR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"ERR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"OTW"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"WIP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"PR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"ERR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3467,7 +3769,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,45 +3798,45 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="34">
         <v>34767</v>
@@ -3546,10 +3848,10 @@
         <v>17.03</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="34">
         <v>34541</v>
@@ -3558,21 +3860,21 @@
         <v>150</v>
       </c>
       <c r="J2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="M2" s="34">
         <v>34514</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="34">
         <v>34862</v>
@@ -3584,21 +3886,21 @@
         <v>17.03</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="34">
         <v>34516</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="34">
         <v>35255</v>
@@ -3610,33 +3912,33 @@
         <v>25.79</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" s="34">
         <v>34530</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="34">
         <v>35403</v>
@@ -3648,27 +3950,27 @@
         <v>17</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="L5" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" s="34">
         <v>34530</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="34">
         <v>35403</v>
@@ -3680,21 +3982,21 @@
         <v>0</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M6" s="34">
         <v>34533</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="34">
         <v>35499</v>
@@ -3706,21 +4008,21 @@
         <v>57.46</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" s="34">
         <v>34578</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="34">
         <v>35678</v>
@@ -3732,21 +4034,21 @@
         <v>10.65</v>
       </c>
       <c r="E8" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>87</v>
       </c>
       <c r="M8" s="34">
         <v>34973</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="34">
         <v>35983</v>
@@ -3758,7 +4060,7 @@
         <v>313.48</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
@@ -3771,18 +4073,18 @@
         <v>34514</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9" s="34">
         <v>35010</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="34">
         <v>35992</v>
@@ -3792,22 +4094,22 @@
         <v>47.93</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="18"/>
       <c r="L10" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" s="34">
         <v>35855</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="34">
         <v>36033</v>
@@ -3819,28 +4121,28 @@
         <v>282.23</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(D2:D30)</f>
         <v>2098.1100000000006</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M11" s="34">
         <v>35855</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="34">
         <v>36076</v>
@@ -3852,22 +4154,22 @@
         <v>102.88</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="18"/>
       <c r="L12" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="34">
         <v>35855</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="34">
         <v>36112</v>
@@ -3879,28 +4181,28 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="6">
         <f>SUM(I2)</f>
         <v>150</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" s="34">
         <v>36831</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="34">
         <v>36214</v>
@@ -3912,22 +4214,22 @@
         <v>20.22</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="18"/>
       <c r="L14" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14" s="34">
         <v>36831</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="34">
         <v>36362</v>
@@ -3938,25 +4240,25 @@
       </c>
       <c r="E15" s="33"/>
       <c r="G15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6">
         <f>I5</f>
         <v>0</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M15" s="34">
         <v>36831</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="34">
         <v>36670</v>
@@ -3968,12 +4270,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="34">
         <v>37077</v>
@@ -3983,10 +4285,10 @@
         <v>23.8</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="45">
         <f>SUM(H9,H11,H13,H15)</f>
@@ -3995,7 +4297,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="34">
         <v>37120</v>
@@ -4007,12 +4309,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="34">
         <v>37434</v>
@@ -4027,7 +4329,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="34">
         <v>37495</v>
@@ -4039,12 +4341,12 @@
         <v>53.13</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="34">
         <v>37587</v>
@@ -4056,12 +4358,12 @@
         <v>13.77</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="34">
         <v>37642</v>
@@ -4073,12 +4375,12 @@
         <v>105.99</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="34">
         <v>37708</v>
@@ -4090,12 +4392,12 @@
         <v>13.77</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="34">
         <v>37823</v>
@@ -4110,7 +4412,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="34">
         <v>38546</v>
@@ -4123,7 +4425,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="34">
         <v>38603</v>
@@ -4135,12 +4437,12 @@
         <v>233.31</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="34">
         <v>40441</v>
@@ -4152,12 +4454,12 @@
         <v>233.49</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="34">
         <v>41783</v>
@@ -4167,12 +4469,12 @@
         <v>136.21</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="34">
         <v>42916</v>
@@ -4182,12 +4484,12 @@
         <v>11.25</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="34">
         <v>42925</v>
@@ -4197,7 +4499,7 @@
         <v>85.75</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4224,35 +4526,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="34">
         <v>34199</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="34">
         <v>34199</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
